--- a/generatedcolumns/生成列調査.xlsx
+++ b/generatedcolumns/生成列調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F45DD-4FD9-42DC-BAFE-F5AFE3A82679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE1F9EA-F038-497D-821E-08CB5DCA9424}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>;</t>
   </si>
   <si>
-    <t>drop table if exists t1;</t>
-  </si>
-  <si>
     <t>create table t1(</t>
   </si>
   <si>
@@ -497,6 +494,10 @@
   </si>
   <si>
     <t>ERROR:  生成式は不変ではありません</t>
+  </si>
+  <si>
+    <t>drop table if exists t1;</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -921,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -946,27 +947,27 @@
     </row>
     <row r="2" spans="2:2" ht="19.5">
       <c r="B2" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="19.5">
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="19.5">
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="19.5">
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="19.5">
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:2" s="2" customFormat="1">
@@ -981,27 +982,27 @@
     </row>
     <row r="11" spans="2:2" ht="19.5">
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:2" s="4" customFormat="1">
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:2" s="4" customFormat="1">
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:2" s="4" customFormat="1">
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:2" s="4" customFormat="1">
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:2" s="4" customFormat="1">
@@ -1016,7 +1017,7 @@
     </row>
     <row r="18" spans="2:5" s="4" customFormat="1">
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="4" customFormat="1">
@@ -1027,7 +1028,7 @@
     <row r="20" spans="2:5" s="4" customFormat="1"/>
     <row r="21" spans="2:5" s="4" customFormat="1">
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:5" s="4" customFormat="1">
@@ -1052,7 +1053,7 @@
     </row>
     <row r="26" spans="2:5" s="4" customFormat="1">
       <c r="B26" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:5" s="4" customFormat="1">
@@ -1065,40 +1066,40 @@
     </row>
     <row r="29" spans="2:5" ht="19.5">
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:5" s="4" customFormat="1">
       <c r="B30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:5" s="4" customFormat="1">
       <c r="B31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:5" s="4" customFormat="1">
       <c r="B32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:8" s="4" customFormat="1">
@@ -1109,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:8" s="4" customFormat="1">
@@ -1123,10 +1124,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="4" customFormat="1">
@@ -1137,58 +1138,58 @@
         <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:8" s="7" customFormat="1">
       <c r="B36" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:8" s="11" customFormat="1">
       <c r="B37" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:8" s="11" customFormat="1">
       <c r="B38" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:8" s="4" customFormat="1">
       <c r="B39" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:8" s="4" customFormat="1">
       <c r="B40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:8" s="4" customFormat="1">
       <c r="B41" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1202,7 +1203,7 @@
         <v>23589</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1211,13 +1212,13 @@
         <v>23589</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="4" customFormat="1">
@@ -1225,7 +1226,7 @@
         <v>23589</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" s="4">
         <v>2</v>
@@ -1234,13 +1235,13 @@
         <v>23589</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:8" s="4" customFormat="1">
@@ -1248,7 +1249,7 @@
         <v>23589</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="4">
         <v>3</v>
@@ -1257,10 +1258,10 @@
         <v>23589</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="2:8" s="4" customFormat="1">
@@ -1268,7 +1269,7 @@
         <v>23589</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4">
         <v>4</v>
@@ -1277,10 +1278,10 @@
         <v>23589</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -1288,27 +1289,27 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="2:8" s="4" customFormat="1">
       <c r="B48" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:12" s="4" customFormat="1">
       <c r="B49" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="2:12" s="4" customFormat="1">
       <c r="B50" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="2:12" s="4" customFormat="1">
       <c r="B51" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="2:12">
@@ -1316,17 +1317,17 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="2:12" s="4" customFormat="1" ht="19.5">
       <c r="B54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="2:12" s="4" customFormat="1">
       <c r="B55" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="2:12">
@@ -1334,17 +1335,17 @@
     </row>
     <row r="57" spans="2:12">
       <c r="B57" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="2:12" s="4" customFormat="1">
       <c r="B58" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:12" s="4" customFormat="1">
       <c r="B59" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:12">
@@ -1352,96 +1353,96 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="2:12" s="4" customFormat="1">
       <c r="B62" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="2:12" s="4" customFormat="1">
       <c r="B63" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="L63" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="64" spans="2:12" s="4" customFormat="1">
       <c r="B64" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="4" t="s">
+      <c r="I64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="L64" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="4" customFormat="1">
       <c r="B65" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -1456,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K65" s="4">
         <v>1</v>
@@ -1467,16 +1468,16 @@
     </row>
     <row r="66" spans="1:12" s="4" customFormat="1">
       <c r="B66" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -1491,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K66" s="4">
         <v>1</v>
@@ -1505,32 +1506,32 @@
     </row>
     <row r="68" spans="1:12" s="11" customFormat="1">
       <c r="A68" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="11" customFormat="1">
       <c r="B69" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="11" customFormat="1">
       <c r="B70" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="4" customFormat="1">
       <c r="B71" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="4" customFormat="1">
       <c r="B72" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="4" customFormat="1">
       <c r="B73" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="4" customFormat="1">
@@ -1543,13 +1544,13 @@
     </row>
     <row r="76" spans="1:12" s="4" customFormat="1">
       <c r="B76" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1"/>
     <row r="78" spans="1:12" s="11" customFormat="1">
       <c r="B78" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="4" customFormat="1">
@@ -1613,17 +1614,17 @@
     </row>
     <row r="92" spans="2:2" s="4" customFormat="1">
       <c r="B92" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="2:2" s="4" customFormat="1">
       <c r="B93" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="2:2" s="4" customFormat="1">
       <c r="B94" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="2:2" s="4" customFormat="1">
@@ -1636,17 +1637,17 @@
     </row>
     <row r="97" spans="2:2" s="4" customFormat="1">
       <c r="B97" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="2:2" s="4" customFormat="1">
       <c r="B98" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="2:2" s="4" customFormat="1">
       <c r="B99" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="2:2" s="4" customFormat="1">
@@ -1659,12 +1660,12 @@
     </row>
     <row r="102" spans="2:2" s="4" customFormat="1">
       <c r="B102" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="2:2" s="4" customFormat="1">
       <c r="B103" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="2:2" s="11" customFormat="1"/>
@@ -1675,17 +1676,17 @@
     </row>
     <row r="106" spans="2:2" s="4" customFormat="1">
       <c r="B106" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="2:2" s="4" customFormat="1">
       <c r="B107" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="2:2" s="4" customFormat="1">
       <c r="B108" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="2:2" s="4" customFormat="1">
@@ -1698,12 +1699,12 @@
     </row>
     <row r="111" spans="2:2" s="4" customFormat="1">
       <c r="B111" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="2:2" s="4" customFormat="1">
       <c r="B112" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="2:3" s="11" customFormat="1">
@@ -1716,32 +1717,32 @@
     </row>
     <row r="115" spans="2:3" s="4" customFormat="1">
       <c r="B115" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="2:3" s="4" customFormat="1">
       <c r="B116" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="2:3" s="4" customFormat="1">
       <c r="B117" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="2:3" s="4" customFormat="1">
       <c r="B118" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="2:3" s="4" customFormat="1">
       <c r="B119" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="2:3" s="4" customFormat="1">
       <c r="B120" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="2:3" s="11" customFormat="1">
@@ -1750,18 +1751,18 @@
     <row r="122" spans="2:3" s="11" customFormat="1"/>
     <row r="123" spans="2:3" s="11" customFormat="1">
       <c r="B123" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="2:3" s="11" customFormat="1">
       <c r="C124" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="2:3" s="11" customFormat="1">
       <c r="B125" s="13"/>
       <c r="C125" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="2:3" s="11" customFormat="1"/>

--- a/generatedcolumns/生成列調査.xlsx
+++ b/generatedcolumns/生成列調査.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE1F9EA-F038-497D-821E-08CB5DCA9424}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C209BA7-6D58-4915-9E95-3068E86160DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">  created timestamp default current_timestamp,</t>
   </si>
   <si>
-    <t>select</t>
-  </si>
-  <si>
     <t xml:space="preserve">  format('テスト商品%s', i), </t>
   </si>
   <si>
@@ -109,13 +106,7 @@
     <t>;</t>
   </si>
   <si>
-    <t>create table t1(</t>
-  </si>
-  <si>
     <t>insert into t1(name, created)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  generate_series(1, 3) as i</t>
   </si>
   <si>
     <t>2)generated always as identityのあるテーブルの生成とデータ挿入</t>
@@ -497,6 +488,18 @@
   </si>
   <si>
     <t>drop table if exists t1;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  generate_series(1, 3) as i</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>create table t1(</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -922,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -947,27 +950,27 @@
     </row>
     <row r="2" spans="2:2" ht="19.5">
       <c r="B2" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="19.5">
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="19.5">
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="19.5">
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="19.5">
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:2" s="2" customFormat="1">
@@ -982,27 +985,27 @@
     </row>
     <row r="11" spans="2:2" ht="19.5">
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:2" s="4" customFormat="1">
       <c r="B12" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:2" s="4" customFormat="1">
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:2" s="4" customFormat="1">
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:2" s="4" customFormat="1">
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:2" s="4" customFormat="1">
@@ -1017,7 +1020,7 @@
     </row>
     <row r="18" spans="2:5" s="4" customFormat="1">
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="4" customFormat="1">
@@ -1028,37 +1031,37 @@
     <row r="20" spans="2:5" s="4" customFormat="1"/>
     <row r="21" spans="2:5" s="4" customFormat="1">
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:5" s="4" customFormat="1">
       <c r="B22" s="8" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:5" s="4" customFormat="1">
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:5" s="4" customFormat="1">
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:5" s="4" customFormat="1">
       <c r="B25" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:5" s="4" customFormat="1">
       <c r="B26" s="8" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:5" s="4" customFormat="1">
       <c r="B27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:5" s="7" customFormat="1">
@@ -1066,40 +1069,40 @@
     </row>
     <row r="29" spans="2:5" ht="19.5">
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:5" s="4" customFormat="1">
       <c r="B30" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:5" s="4" customFormat="1">
       <c r="B31" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:5" s="4" customFormat="1">
       <c r="B32" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:8" s="4" customFormat="1">
@@ -1110,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:8" s="4" customFormat="1">
@@ -1124,10 +1127,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="4" customFormat="1">
@@ -1138,58 +1141,58 @@
         <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:8" s="7" customFormat="1">
       <c r="B36" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:8" s="11" customFormat="1">
       <c r="B37" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:8" s="11" customFormat="1">
       <c r="B38" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:8" s="4" customFormat="1">
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:8" s="4" customFormat="1">
       <c r="B40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:8" s="4" customFormat="1">
       <c r="B41" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1203,7 +1206,7 @@
         <v>23589</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1212,13 +1215,13 @@
         <v>23589</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="4" customFormat="1">
@@ -1226,7 +1229,7 @@
         <v>23589</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D43" s="4">
         <v>2</v>
@@ -1235,13 +1238,13 @@
         <v>23589</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:8" s="4" customFormat="1">
@@ -1249,7 +1252,7 @@
         <v>23589</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D44" s="4">
         <v>3</v>
@@ -1258,10 +1261,10 @@
         <v>23589</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:8" s="4" customFormat="1">
@@ -1269,7 +1272,7 @@
         <v>23589</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D45" s="4">
         <v>4</v>
@@ -1278,10 +1281,10 @@
         <v>23589</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -1289,27 +1292,27 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:8" s="4" customFormat="1">
       <c r="B48" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:12" s="4" customFormat="1">
       <c r="B49" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:12" s="4" customFormat="1">
       <c r="B50" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:12" s="4" customFormat="1">
       <c r="B51" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="2:12">
@@ -1317,17 +1320,17 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="2:12" s="4" customFormat="1" ht="19.5">
       <c r="B54" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="2:12" s="4" customFormat="1">
       <c r="B55" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="2:12">
@@ -1335,17 +1338,17 @@
     </row>
     <row r="57" spans="2:12">
       <c r="B57" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="2:12" s="4" customFormat="1">
       <c r="B58" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:12" s="4" customFormat="1">
       <c r="B59" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="2:12">
@@ -1353,96 +1356,96 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="2:12" s="4" customFormat="1">
       <c r="B62" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="2:12" s="4" customFormat="1">
       <c r="B63" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="L63" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:12" s="4" customFormat="1">
       <c r="B64" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J64" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="K64" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="4" customFormat="1">
       <c r="B65" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -1457,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K65" s="4">
         <v>1</v>
@@ -1468,16 +1471,16 @@
     </row>
     <row r="66" spans="1:12" s="4" customFormat="1">
       <c r="B66" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -1492,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K66" s="4">
         <v>1</v>
@@ -1506,32 +1509,32 @@
     </row>
     <row r="68" spans="1:12" s="11" customFormat="1">
       <c r="A68" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="11" customFormat="1">
       <c r="B69" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="11" customFormat="1">
       <c r="B70" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="4" customFormat="1">
       <c r="B71" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="4" customFormat="1">
       <c r="B72" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="4" customFormat="1">
       <c r="B73" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="4" customFormat="1">
@@ -1544,13 +1547,13 @@
     </row>
     <row r="76" spans="1:12" s="4" customFormat="1">
       <c r="B76" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="11" customFormat="1"/>
     <row r="78" spans="1:12" s="11" customFormat="1">
       <c r="B78" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="4" customFormat="1">
@@ -1614,17 +1617,17 @@
     </row>
     <row r="92" spans="2:2" s="4" customFormat="1">
       <c r="B92" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="2:2" s="4" customFormat="1">
       <c r="B93" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="2:2" s="4" customFormat="1">
       <c r="B94" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="2:2" s="4" customFormat="1">
@@ -1637,17 +1640,17 @@
     </row>
     <row r="97" spans="2:2" s="4" customFormat="1">
       <c r="B97" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="2:2" s="4" customFormat="1">
       <c r="B98" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="2:2" s="4" customFormat="1">
       <c r="B99" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="2:2" s="4" customFormat="1">
@@ -1660,12 +1663,12 @@
     </row>
     <row r="102" spans="2:2" s="4" customFormat="1">
       <c r="B102" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="2:2" s="4" customFormat="1">
       <c r="B103" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="2:2" s="11" customFormat="1"/>
@@ -1676,17 +1679,17 @@
     </row>
     <row r="106" spans="2:2" s="4" customFormat="1">
       <c r="B106" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="2:2" s="4" customFormat="1">
       <c r="B107" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="2:2" s="4" customFormat="1">
       <c r="B108" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="2:2" s="4" customFormat="1">
@@ -1699,12 +1702,12 @@
     </row>
     <row r="111" spans="2:2" s="4" customFormat="1">
       <c r="B111" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="2:2" s="4" customFormat="1">
       <c r="B112" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="2:3" s="11" customFormat="1">
@@ -1717,32 +1720,32 @@
     </row>
     <row r="115" spans="2:3" s="4" customFormat="1">
       <c r="B115" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="2:3" s="4" customFormat="1">
       <c r="B116" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="2:3" s="4" customFormat="1">
       <c r="B117" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="2:3" s="4" customFormat="1">
       <c r="B118" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="2:3" s="4" customFormat="1">
       <c r="B119" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="2:3" s="4" customFormat="1">
       <c r="B120" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="2:3" s="11" customFormat="1">
@@ -1751,18 +1754,18 @@
     <row r="122" spans="2:3" s="11" customFormat="1"/>
     <row r="123" spans="2:3" s="11" customFormat="1">
       <c r="B123" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="2:3" s="11" customFormat="1">
       <c r="C124" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="2:3" s="11" customFormat="1">
       <c r="B125" s="13"/>
       <c r="C125" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="2:3" s="11" customFormat="1"/>

--- a/generatedcolumns/生成列調査.xlsx
+++ b/generatedcolumns/生成列調査.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C209BA7-6D58-4915-9E95-3068E86160DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1C209BA7-6D58-4915-9E95-3068E86160DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D9FEE253-EA01-43BD-A78D-92374CB069E7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>生成列の動作確認</t>
     <rPh sb="0" eb="2">
@@ -312,9 +312,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>psql -U postgres -p5432 -d testdb -c "insert into t1 (default_id, name) values (1, 'テスト商品1');"</t>
-  </si>
-  <si>
     <t>INSERT 0 1" " "</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>psql -U postgres -p5432 -d testdb -c "select * from pg_sequences;"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> schemaname </t>
   </si>
   <si>
@@ -500,6 +494,51 @@
   </si>
   <si>
     <t>create table t1(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "insert into t1 (default_id, name) values (1, 'テスト商品1');"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "select * from pg_sequences;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "SELECT generate_subscripts('{NULL,1,NULL,2}'::int[], 1) AS s;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>(4 行)</t>
+  </si>
+  <si>
+    <t>8)配列添え字生成関数generate_subscriptsの動作確認します</t>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -923,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -950,27 +989,27 @@
     </row>
     <row r="2" spans="2:2" ht="19.5">
       <c r="B2" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="19.5">
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="19.5">
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="19.5">
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="19.5">
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:2" s="2" customFormat="1">
@@ -990,12 +1029,12 @@
     </row>
     <row r="12" spans="2:2" s="4" customFormat="1">
       <c r="B12" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:2" s="4" customFormat="1">
       <c r="B13" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:2" s="4" customFormat="1">
@@ -1036,7 +1075,7 @@
     </row>
     <row r="22" spans="2:5" s="4" customFormat="1">
       <c r="B22" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:5" s="4" customFormat="1">
@@ -1056,7 +1095,7 @@
     </row>
     <row r="26" spans="2:5" s="4" customFormat="1">
       <c r="B26" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:5" s="4" customFormat="1">
@@ -1343,12 +1382,12 @@
     </row>
     <row r="58" spans="2:12" s="4" customFormat="1">
       <c r="B58" s="8" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="2:12" s="4" customFormat="1">
       <c r="B59" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="2:12">
@@ -1356,47 +1395,47 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="2:12" s="4" customFormat="1">
       <c r="B62" s="8" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="2:12" s="4" customFormat="1">
       <c r="B63" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="L63" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="64" spans="2:12" s="4" customFormat="1">
@@ -1404,10 +1443,10 @@
         <v>45</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>44</v>
@@ -1436,16 +1475,16 @@
     </row>
     <row r="65" spans="1:12" s="4" customFormat="1">
       <c r="B65" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -1460,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K65" s="4">
         <v>1</v>
@@ -1471,16 +1510,16 @@
     </row>
     <row r="66" spans="1:12" s="4" customFormat="1">
       <c r="B66" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E66" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -1495,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K66" s="4">
         <v>1</v>
@@ -1504,192 +1543,198 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="7" customFormat="1">
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="1:12" s="11" customFormat="1">
-      <c r="A68" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="11" customFormat="1">
-      <c r="B69" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="11" customFormat="1">
-      <c r="B70" s="6" t="s">
-        <v>102</v>
+    <row r="67" spans="1:12" s="11" customFormat="1">
+      <c r="B67" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="4" customFormat="1">
+      <c r="B68" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="4" customFormat="1">
+      <c r="B69" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="4" customFormat="1">
+      <c r="B70" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="4" customFormat="1">
-      <c r="B71" s="8" t="s">
-        <v>106</v>
+      <c r="B71" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="4" customFormat="1">
-      <c r="B72" s="8" t="s">
-        <v>107</v>
+      <c r="B72" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="4" customFormat="1">
-      <c r="B73" s="8" t="s">
-        <v>119</v>
+      <c r="B73" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="4" customFormat="1">
-      <c r="B74" s="8" t="s">
-        <v>8</v>
+      <c r="B74" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="4" customFormat="1">
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:12" s="4" customFormat="1">
-      <c r="B76" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="11" customFormat="1"/>
+      <c r="B75" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="7" customFormat="1">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" s="11" customFormat="1">
+      <c r="A77" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="78" spans="1:12" s="11" customFormat="1">
       <c r="B78" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="4" customFormat="1">
-      <c r="B79" s="8" t="s">
-        <v>3</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="11" customFormat="1">
+      <c r="B79" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:12" s="4" customFormat="1">
       <c r="B80" s="8" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="2:2" s="4" customFormat="1">
       <c r="B81" s="8" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="2:2" s="4" customFormat="1">
       <c r="B82" s="8" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="2:2" s="4" customFormat="1">
       <c r="B83" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="2:2" s="4" customFormat="1">
-      <c r="B84" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="2:2" s="4" customFormat="1">
       <c r="B85" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" s="4" customFormat="1">
-      <c r="B86" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" s="4" customFormat="1">
-      <c r="B87" s="8" t="s">
-        <v>8</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" s="11" customFormat="1"/>
+    <row r="87" spans="2:2" s="11" customFormat="1">
+      <c r="B87" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="2:2" s="4" customFormat="1">
-      <c r="B88" s="8"/>
+      <c r="B88" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="2:2" s="4" customFormat="1">
       <c r="B89" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" s="11" customFormat="1"/>
-    <row r="91" spans="2:2" s="11" customFormat="1">
-      <c r="B91" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" s="4" customFormat="1">
+      <c r="B90" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" s="4" customFormat="1">
+      <c r="B91" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="2:2" s="4" customFormat="1">
       <c r="B92" s="8" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="2:2" s="4" customFormat="1">
       <c r="B93" s="8" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="2:2" s="4" customFormat="1">
       <c r="B94" s="8" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="2:2" s="4" customFormat="1">
       <c r="B95" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" s="4" customFormat="1">
+      <c r="B96" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:2" s="4" customFormat="1">
-      <c r="B96" s="8"/>
-    </row>
     <row r="97" spans="2:2" s="4" customFormat="1">
-      <c r="B97" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B97" s="8"/>
     </row>
     <row r="98" spans="2:2" s="4" customFormat="1">
       <c r="B98" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" s="4" customFormat="1">
-      <c r="B99" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" s="4" customFormat="1">
-      <c r="B100" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" s="11" customFormat="1"/>
+    <row r="100" spans="2:2" s="11" customFormat="1">
+      <c r="B100" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="2:2" s="4" customFormat="1">
-      <c r="B101" s="8"/>
+      <c r="B101" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="102" spans="2:2" s="4" customFormat="1">
       <c r="B102" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="2:2" s="4" customFormat="1">
       <c r="B103" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" s="11" customFormat="1"/>
-    <row r="105" spans="2:2" s="14" customFormat="1">
-      <c r="B105" s="15" t="s">
-        <v>13</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" s="4" customFormat="1">
+      <c r="B104" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" s="4" customFormat="1">
+      <c r="B105" s="8"/>
     </row>
     <row r="106" spans="2:2" s="4" customFormat="1">
       <c r="B106" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="2:2" s="4" customFormat="1">
       <c r="B107" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" s="4" customFormat="1">
+      <c r="B108" s="4" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" s="4" customFormat="1">
-      <c r="B108" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="109" spans="2:2" s="4" customFormat="1">
@@ -1702,77 +1747,116 @@
     </row>
     <row r="111" spans="2:2" s="4" customFormat="1">
       <c r="B111" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="2:2" s="4" customFormat="1">
       <c r="B112" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" s="11" customFormat="1"/>
+    <row r="114" spans="2:2" s="14" customFormat="1">
+      <c r="B114" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" s="4" customFormat="1">
+      <c r="B115" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" s="4" customFormat="1">
+      <c r="B116" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" s="4" customFormat="1">
+      <c r="B117" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" s="4" customFormat="1">
+      <c r="B118" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" s="4" customFormat="1">
+      <c r="B119" s="8"/>
+    </row>
+    <row r="120" spans="2:2" s="4" customFormat="1">
+      <c r="B120" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" s="4" customFormat="1">
+      <c r="B121" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" s="11" customFormat="1">
+      <c r="B122" s="6"/>
+    </row>
+    <row r="123" spans="2:2" s="11" customFormat="1">
+      <c r="B123" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" s="4" customFormat="1">
+      <c r="B124" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" s="4" customFormat="1">
+      <c r="B125" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" s="4" customFormat="1">
+      <c r="B126" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" s="4" customFormat="1">
+      <c r="B127" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" s="4" customFormat="1">
+      <c r="B128" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="2:3" s="11" customFormat="1">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:3" s="11" customFormat="1">
-      <c r="B114" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" s="4" customFormat="1">
-      <c r="B115" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" s="4" customFormat="1">
-      <c r="B116" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" s="4" customFormat="1">
-      <c r="B117" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" s="4" customFormat="1">
-      <c r="B118" s="8" t="s">
+    <row r="129" spans="2:3" s="4" customFormat="1">
+      <c r="B129" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="2:3" s="4" customFormat="1">
-      <c r="B119" s="8" t="s">
+    <row r="130" spans="2:3" s="11" customFormat="1">
+      <c r="B130" s="13"/>
+    </row>
+    <row r="131" spans="2:3" s="11" customFormat="1"/>
+    <row r="132" spans="2:3" s="11" customFormat="1">
+      <c r="B132" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" s="11" customFormat="1">
+      <c r="C133" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" s="11" customFormat="1">
+      <c r="B134" s="13"/>
+      <c r="C134" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="2:3" s="4" customFormat="1">
-      <c r="B120" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" s="11" customFormat="1">
-      <c r="B121" s="13"/>
-    </row>
-    <row r="122" spans="2:3" s="11" customFormat="1"/>
-    <row r="123" spans="2:3" s="11" customFormat="1">
-      <c r="B123" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" s="11" customFormat="1">
-      <c r="C124" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" s="11" customFormat="1">
-      <c r="B125" s="13"/>
-      <c r="C125" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" s="11" customFormat="1"/>
-    <row r="127" spans="2:3" s="11" customFormat="1">
-      <c r="B127" s="13"/>
-    </row>
-    <row r="128" spans="2:3" s="11" customFormat="1"/>
+    <row r="135" spans="2:3" s="11" customFormat="1"/>
+    <row r="136" spans="2:3" s="11" customFormat="1">
+      <c r="B136" s="13"/>
+    </row>
+    <row r="137" spans="2:3" s="11" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
